--- a/va_facility_data_2025-02-20/Florence VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Florence%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Florence VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Florence%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R73535918da35436796f4129836ae3b5a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rca06173966a140df97adc6fb4d65716f"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rde72de8aade649cba6b3a6b35a2cd0c3"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rde818ea985f74f50899b35829b3d9ba6"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra898327833e5456185aee72017c3f4ce"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra59ac785d43349f2a49a912aa25ec3e9"/>
   </x:sheets>
 </x:workbook>
 </file>
